--- a/biology/Botanique/Gypsophila_repens/Gypsophila_repens.xlsx
+++ b/biology/Botanique/Gypsophila_repens/Gypsophila_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gypsophila repens, la gypsophile rampante est une espèce de plante herbacée de la famille des Caryophyllaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante (haute de 10 à 20 cm), à tiges couchées, dont les rameaux florifères dressés portent des feuilles étroites, allongées. Les fleurs se disposent en grappes, les cinq pétales sont rosâtres en dedans, rose foncé en dehors, floraison de juin à septembre.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Orophyte, la gypsophile rampante pousse parmi les rochers, dans les éboulis, les moraines jusqu'à 2 900 m.</t>
         </is>
